--- a/Code/Results/Cases/Case_7_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_23/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.71677274073958</v>
+        <v>13.93091773841535</v>
       </c>
       <c r="C2">
-        <v>9.145275292176848</v>
+        <v>4.957365063298648</v>
       </c>
       <c r="D2">
-        <v>6.555270951880224</v>
+        <v>6.436892235699193</v>
       </c>
       <c r="E2">
-        <v>5.701533286336375</v>
+        <v>5.605770439749502</v>
       </c>
       <c r="F2">
-        <v>68.79374416228301</v>
+        <v>71.09562575308756</v>
       </c>
       <c r="G2">
-        <v>2.181330929108729</v>
+        <v>2.220134870282272</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.141066495218353</v>
+        <v>7.707399025964809</v>
       </c>
       <c r="K2">
-        <v>14.84476891242808</v>
+        <v>10.91384921965045</v>
       </c>
       <c r="L2">
-        <v>5.63725011375085</v>
+        <v>5.401589890143577</v>
       </c>
       <c r="M2">
-        <v>11.86090634469711</v>
+        <v>10.16727413527376</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.86229407814393</v>
+        <v>13.47785086563118</v>
       </c>
       <c r="C3">
-        <v>8.453616366915703</v>
+        <v>4.636712411879812</v>
       </c>
       <c r="D3">
-        <v>6.233417584027736</v>
+        <v>6.162195377740804</v>
       </c>
       <c r="E3">
-        <v>5.693766288493069</v>
+        <v>5.652074654315485</v>
       </c>
       <c r="F3">
-        <v>65.94352365867051</v>
+        <v>68.37965923683984</v>
       </c>
       <c r="G3">
-        <v>2.194336210660769</v>
+        <v>2.230699620123811</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.105747700239895</v>
+        <v>7.653631821990932</v>
       </c>
       <c r="K3">
-        <v>14.17990597700797</v>
+        <v>10.609368308335</v>
       </c>
       <c r="L3">
-        <v>5.691447873283863</v>
+        <v>5.468179934353525</v>
       </c>
       <c r="M3">
-        <v>11.67895204896634</v>
+        <v>10.1388414249272</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.34113295211543</v>
+        <v>13.20813895936785</v>
       </c>
       <c r="C4">
-        <v>8.010410093603854</v>
+        <v>4.43198165502773</v>
       </c>
       <c r="D4">
-        <v>6.030737704123374</v>
+        <v>5.98856698411845</v>
       </c>
       <c r="E4">
-        <v>5.689610838892343</v>
+        <v>5.681833877086254</v>
       </c>
       <c r="F4">
-        <v>64.17174242794785</v>
+        <v>66.68360940178782</v>
       </c>
       <c r="G4">
-        <v>2.202475969129138</v>
+        <v>2.237336473135727</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.084734922246612</v>
+        <v>7.621278153458978</v>
       </c>
       <c r="K4">
-        <v>13.77609552000962</v>
+        <v>10.43127980168726</v>
       </c>
       <c r="L4">
-        <v>5.728155113396386</v>
+        <v>5.511958316783697</v>
       </c>
       <c r="M4">
-        <v>11.57822408540681</v>
+        <v>10.1300317824888</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.1298693424484</v>
+        <v>13.10047083573112</v>
       </c>
       <c r="C5">
-        <v>7.825008732097983</v>
+        <v>4.346538796487303</v>
       </c>
       <c r="D5">
-        <v>5.946891752723286</v>
+        <v>5.916580792456613</v>
       </c>
       <c r="E5">
-        <v>5.688060012724971</v>
+        <v>5.694299149527923</v>
       </c>
       <c r="F5">
-        <v>63.44464968060901</v>
+        <v>65.98578235030861</v>
       </c>
       <c r="G5">
-        <v>2.205835662375017</v>
+        <v>2.240081157406959</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.076324549389397</v>
+        <v>7.608248812198455</v>
       </c>
       <c r="K5">
-        <v>13.61282792340859</v>
+        <v>10.36097920756346</v>
       </c>
       <c r="L5">
-        <v>5.74395488463225</v>
+        <v>5.530514665069958</v>
       </c>
       <c r="M5">
-        <v>11.53987849844565</v>
+        <v>10.12854623994159</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.09486421276156</v>
+        <v>13.08273134143537</v>
       </c>
       <c r="C6">
-        <v>7.793929928936924</v>
+        <v>4.332228446171243</v>
       </c>
       <c r="D6">
-        <v>5.932894425735817</v>
+        <v>5.904553827979258</v>
       </c>
       <c r="E6">
-        <v>5.687810790094764</v>
+        <v>5.696389540199737</v>
       </c>
       <c r="F6">
-        <v>63.32362340973674</v>
+        <v>65.86952135759589</v>
       </c>
       <c r="G6">
-        <v>2.206396220185965</v>
+        <v>2.240539399229753</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.074936760439695</v>
+        <v>7.606094361507799</v>
       </c>
       <c r="K6">
-        <v>13.58580110993294</v>
+        <v>10.34944427556251</v>
       </c>
       <c r="L6">
-        <v>5.746628657677992</v>
+        <v>5.533638902845085</v>
       </c>
       <c r="M6">
-        <v>11.53367257274708</v>
+        <v>10.12842462705227</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.33827892268154</v>
+        <v>13.20667768291175</v>
       </c>
       <c r="C7">
-        <v>8.007929273060737</v>
+        <v>4.430837542379648</v>
       </c>
       <c r="D7">
-        <v>6.029611961694928</v>
+        <v>5.98760111012317</v>
       </c>
       <c r="E7">
-        <v>5.6895893612925</v>
+        <v>5.682000613577714</v>
       </c>
       <c r="F7">
-        <v>64.16195656144836</v>
+        <v>66.67422458444049</v>
       </c>
       <c r="G7">
-        <v>2.202521101507566</v>
+        <v>2.237373323467566</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.08462090067352</v>
+        <v>7.621101821221525</v>
       </c>
       <c r="K7">
-        <v>13.77388816012322</v>
+        <v>10.43032244907635</v>
       </c>
       <c r="L7">
-        <v>5.728364814717586</v>
+        <v>5.512205687281273</v>
       </c>
       <c r="M7">
-        <v>11.57769608713085</v>
+        <v>10.13000331944961</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.42155000468667</v>
+        <v>13.77300638732343</v>
       </c>
       <c r="C8">
-        <v>8.91055233685908</v>
+        <v>4.848406803546291</v>
       </c>
       <c r="D8">
-        <v>6.44535398502378</v>
+        <v>6.343214473086039</v>
       </c>
       <c r="E8">
-        <v>5.698720420847033</v>
+        <v>5.621463006203786</v>
       </c>
       <c r="F8">
-        <v>67.81569371314838</v>
+        <v>70.16531992813691</v>
       </c>
       <c r="G8">
-        <v>2.185785510183717</v>
+        <v>2.223747941666574</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.128738330966875</v>
+        <v>7.688716422360746</v>
       </c>
       <c r="K8">
-        <v>14.61470248290694</v>
+        <v>10.80705048147524</v>
       </c>
       <c r="L8">
-        <v>5.655212291891511</v>
+        <v>5.423942970438934</v>
       </c>
       <c r="M8">
-        <v>11.79584971297308</v>
+        <v>10.15563320458481</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.56597580014783</v>
+        <v>14.94642246394177</v>
       </c>
       <c r="C9">
-        <v>10.54028762221602</v>
+        <v>5.607170731417499</v>
       </c>
       <c r="D9">
-        <v>7.220357927924312</v>
+        <v>7.000898828318647</v>
       </c>
       <c r="E9">
-        <v>5.722100328481107</v>
+        <v>5.513091332187566</v>
       </c>
       <c r="F9">
-        <v>74.79806186208789</v>
+        <v>76.76982161207752</v>
       </c>
       <c r="G9">
-        <v>2.153999249785165</v>
+        <v>2.198101615354719</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.221433982673873</v>
+        <v>7.827079923465825</v>
       </c>
       <c r="K9">
-        <v>16.29290311847326</v>
+        <v>11.61435591790975</v>
       </c>
       <c r="L9">
-        <v>5.540048049463843</v>
+        <v>5.274371822031617</v>
       </c>
       <c r="M9">
-        <v>12.31370904605918</v>
+        <v>10.2776992085334</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.14823852342842</v>
+        <v>15.84217736209349</v>
       </c>
       <c r="C10">
-        <v>11.66263754308886</v>
+        <v>6.131631037285404</v>
       </c>
       <c r="D10">
-        <v>7.766237804718696</v>
+        <v>7.460192884629692</v>
       </c>
       <c r="E10">
-        <v>5.743602088563661</v>
+        <v>5.439486831062986</v>
       </c>
       <c r="F10">
-        <v>79.81411774720179</v>
+        <v>81.46129230490425</v>
       </c>
       <c r="G10">
-        <v>2.130968829406264</v>
+        <v>2.179732090005632</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.294631220326223</v>
+        <v>7.933090549439359</v>
       </c>
       <c r="K10">
-        <v>17.68094307666136</v>
+        <v>12.24741241837244</v>
       </c>
       <c r="L10">
-        <v>5.474395556694324</v>
+        <v>5.179737787089751</v>
       </c>
       <c r="M10">
-        <v>12.75334509255159</v>
+        <v>10.4156421619484</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.86980026774217</v>
+        <v>16.25644606151869</v>
       </c>
       <c r="C11">
-        <v>12.1596828456911</v>
+        <v>6.364028492780044</v>
       </c>
       <c r="D11">
-        <v>8.010032908442843</v>
+        <v>7.664193882958817</v>
       </c>
       <c r="E11">
-        <v>5.754593265369158</v>
+        <v>5.407240609520068</v>
       </c>
       <c r="F11">
-        <v>82.07415353215769</v>
+        <v>83.55998537220192</v>
       </c>
       <c r="G11">
-        <v>2.120481153757722</v>
+        <v>2.171432152267067</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.32938378315666</v>
+        <v>7.982476308424381</v>
       </c>
       <c r="K11">
-        <v>18.41447813816259</v>
+        <v>12.54392829926667</v>
       </c>
       <c r="L11">
-        <v>5.449099888162364</v>
+        <v>5.140249635736645</v>
       </c>
       <c r="M11">
-        <v>12.96730404941074</v>
+        <v>10.48989030786714</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.14342128935892</v>
+        <v>16.41428605819597</v>
       </c>
       <c r="C12">
-        <v>12.34622593318073</v>
+        <v>6.451236963032674</v>
       </c>
       <c r="D12">
-        <v>8.101771480473326</v>
+        <v>7.740766647635111</v>
       </c>
       <c r="E12">
-        <v>5.758956859802993</v>
+        <v>5.395201670083337</v>
       </c>
       <c r="F12">
-        <v>82.92731059082161</v>
+        <v>84.34969506155858</v>
       </c>
       <c r="G12">
-        <v>2.11650022269508</v>
+        <v>2.168292966331105</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.342786906987834</v>
+        <v>8.001364556809831</v>
       </c>
       <c r="K12">
-        <v>18.68978920647685</v>
+        <v>12.65744873812985</v>
       </c>
       <c r="L12">
-        <v>5.440223242452723</v>
+        <v>5.125833820502526</v>
       </c>
       <c r="M12">
-        <v>13.05044588543944</v>
+        <v>10.51974812817977</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.08447220527642</v>
+        <v>16.38024926237764</v>
       </c>
       <c r="C13">
-        <v>12.30612045464166</v>
+        <v>6.432488805313047</v>
       </c>
       <c r="D13">
-        <v>8.082038457038101</v>
+        <v>7.724304876061533</v>
       </c>
       <c r="E13">
-        <v>5.758007629915171</v>
+        <v>5.397786918851668</v>
       </c>
       <c r="F13">
-        <v>82.74367704634707</v>
+        <v>84.17983761870981</v>
       </c>
       <c r="G13">
-        <v>2.117358147693679</v>
+        <v>2.168968950307659</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.339888898055386</v>
+        <v>7.997287974498518</v>
       </c>
       <c r="K13">
-        <v>18.63060025400058</v>
+        <v>12.63294471021687</v>
       </c>
       <c r="L13">
-        <v>5.442102962041137</v>
+        <v>5.128914173369692</v>
       </c>
       <c r="M13">
-        <v>13.03244346877483</v>
+        <v>10.51323878139763</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.89230255989058</v>
+        <v>16.26941224558344</v>
       </c>
       <c r="C14">
-        <v>12.17506180013122</v>
+        <v>6.371218545072406</v>
       </c>
       <c r="D14">
-        <v>8.017591472624876</v>
+        <v>7.670506941642738</v>
       </c>
       <c r="E14">
-        <v>5.75494804795462</v>
+        <v>5.406246746515372</v>
       </c>
       <c r="F14">
-        <v>82.14439337387509</v>
+        <v>83.62505497106356</v>
       </c>
       <c r="G14">
-        <v>2.12015387962944</v>
+        <v>2.171173839455451</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.330481381977851</v>
+        <v>7.984026385842713</v>
       </c>
       <c r="K14">
-        <v>18.437175607787</v>
+        <v>12.553242784987</v>
       </c>
       <c r="L14">
-        <v>5.448355244062848</v>
+        <v>5.139052706623541</v>
       </c>
       <c r="M14">
-        <v>12.9741009607501</v>
+        <v>10.49231129630286</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.77464797720242</v>
+        <v>16.20164735641393</v>
       </c>
       <c r="C15">
-        <v>12.09457476705422</v>
+        <v>6.333588153622813</v>
       </c>
       <c r="D15">
-        <v>7.978042552961508</v>
+        <v>7.637466967612827</v>
       </c>
       <c r="E15">
-        <v>5.753101103245461</v>
+        <v>5.411450854500718</v>
       </c>
       <c r="F15">
-        <v>81.77698450607861</v>
+        <v>83.28458533200836</v>
       </c>
       <c r="G15">
-        <v>2.121864857226395</v>
+        <v>2.172524758871767</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.324751756449698</v>
+        <v>7.975928261248057</v>
       </c>
       <c r="K15">
-        <v>18.31838643076827</v>
+        <v>12.50458470651028</v>
       </c>
       <c r="L15">
-        <v>5.452277857709865</v>
+        <v>5.145333667250963</v>
       </c>
       <c r="M15">
-        <v>12.93864432506225</v>
+        <v>10.47972214397633</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.10112731944565</v>
+        <v>15.81523884951345</v>
       </c>
       <c r="C16">
-        <v>11.6299043634314</v>
+        <v>6.116326628621542</v>
       </c>
       <c r="D16">
-        <v>7.750219602728273</v>
+        <v>7.446764120437162</v>
       </c>
       <c r="E16">
-        <v>5.74291037731924</v>
+        <v>5.441618595073673</v>
       </c>
       <c r="F16">
-        <v>79.66601560262507</v>
+        <v>81.323428142227</v>
       </c>
       <c r="G16">
-        <v>2.131653354200489</v>
+        <v>2.180275290585372</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.292392115798061</v>
+        <v>7.929888087000492</v>
       </c>
       <c r="K16">
-        <v>17.63264292090968</v>
+        <v>12.22820642693882</v>
       </c>
       <c r="L16">
-        <v>5.476144355682507</v>
+        <v>5.18239217674575</v>
       </c>
       <c r="M16">
-        <v>12.73965246243049</v>
+        <v>10.41102865269612</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.68846229352113</v>
+        <v>15.57991022747405</v>
       </c>
       <c r="C17">
-        <v>11.34155969438985</v>
+        <v>5.98152298289128</v>
       </c>
       <c r="D17">
-        <v>7.60934108925579</v>
+        <v>7.328529652196555</v>
       </c>
       <c r="E17">
-        <v>5.736986677513283</v>
+        <v>5.460438275963185</v>
       </c>
       <c r="F17">
-        <v>78.36568950313529</v>
+        <v>80.11125549725341</v>
       </c>
       <c r="G17">
-        <v>2.137650206371443</v>
+        <v>2.185041548583933</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.272935702319459</v>
+        <v>7.901954728668387</v>
       </c>
       <c r="K17">
-        <v>17.20724368090627</v>
+        <v>12.06084300443494</v>
       </c>
       <c r="L17">
-        <v>5.491986240166922</v>
+        <v>5.206055396118864</v>
       </c>
       <c r="M17">
-        <v>12.62122726670764</v>
+        <v>10.37189332201642</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.4512634427993</v>
+        <v>15.44519283826006</v>
       </c>
       <c r="C18">
-        <v>11.17442108334555</v>
+        <v>5.9033992761918</v>
       </c>
       <c r="D18">
-        <v>7.527879893465299</v>
+        <v>7.260057397177808</v>
       </c>
       <c r="E18">
-        <v>5.733691502835598</v>
+        <v>5.471379649025929</v>
       </c>
       <c r="F18">
-        <v>77.61568535258242</v>
+        <v>79.41069410791704</v>
       </c>
       <c r="G18">
-        <v>2.141098936181916</v>
+        <v>2.187788573017693</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.261879519005365</v>
+        <v>7.885996142515273</v>
       </c>
       <c r="K18">
-        <v>16.98977418446919</v>
+        <v>11.96538162875193</v>
       </c>
       <c r="L18">
-        <v>5.501525159752656</v>
+        <v>5.219999333113749</v>
       </c>
       <c r="M18">
-        <v>12.55441896379421</v>
+        <v>10.35046031843356</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.3709762463854</v>
+        <v>15.3996901577559</v>
       </c>
       <c r="C19">
-        <v>11.11760169829797</v>
+        <v>5.876844256957522</v>
       </c>
       <c r="D19">
-        <v>7.500222606620367</v>
+        <v>7.236792875716952</v>
       </c>
       <c r="E19">
-        <v>5.732594284877488</v>
+        <v>5.475104440378555</v>
       </c>
       <c r="F19">
-        <v>77.36137686026186</v>
+        <v>79.17291981851291</v>
       </c>
       <c r="G19">
-        <v>2.142266752313158</v>
+        <v>2.188719752694748</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.25815825565468</v>
+        <v>7.880610810345448</v>
       </c>
       <c r="K19">
-        <v>16.92649134326425</v>
+        <v>11.93319780899324</v>
       </c>
       <c r="L19">
-        <v>5.50482695699136</v>
+        <v>5.224777073901824</v>
       </c>
       <c r="M19">
-        <v>12.53202020255387</v>
+        <v>10.34338577475411</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.73237450518906</v>
+        <v>15.60489556918688</v>
       </c>
       <c r="C20">
-        <v>11.37238621940927</v>
+        <v>5.995933301359194</v>
       </c>
       <c r="D20">
-        <v>7.624382075643957</v>
+        <v>7.341164040410645</v>
       </c>
       <c r="E20">
-        <v>5.737605491956286</v>
+        <v>5.458422842508288</v>
       </c>
       <c r="F20">
-        <v>78.50432512929025</v>
+        <v>80.24064001880429</v>
       </c>
       <c r="G20">
-        <v>2.137011936466697</v>
+        <v>2.184533622334745</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.274992707342704</v>
+        <v>7.904916973960933</v>
       </c>
       <c r="K20">
-        <v>17.25271503009017</v>
+        <v>12.0785761650309</v>
       </c>
       <c r="L20">
-        <v>5.490255336700036</v>
+        <v>5.203501720484073</v>
       </c>
       <c r="M20">
-        <v>12.63369784997351</v>
+        <v>10.37594729794292</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.94873565747703</v>
+        <v>16.30194148046435</v>
       </c>
       <c r="C21">
-        <v>12.21360009687828</v>
+        <v>6.389235882664492</v>
       </c>
       <c r="D21">
-        <v>8.036536231447593</v>
+        <v>7.686326797921381</v>
       </c>
       <c r="E21">
-        <v>5.755841009693996</v>
+        <v>5.40375727063327</v>
       </c>
       <c r="F21">
-        <v>82.32048522664569</v>
+        <v>83.78814306947984</v>
       </c>
       <c r="G21">
-        <v>2.11933303152612</v>
+        <v>2.170526143218212</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.333237704572901</v>
+        <v>7.987916390410977</v>
       </c>
       <c r="K21">
-        <v>18.49405331628184</v>
+        <v>12.57661943596066</v>
       </c>
       <c r="L21">
-        <v>5.446499344632792</v>
+        <v>5.136059964751051</v>
       </c>
       <c r="M21">
-        <v>12.99117901819918</v>
+        <v>10.49841020458031</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.74604388672896</v>
+        <v>16.76314820714112</v>
       </c>
       <c r="C22">
-        <v>12.7537605375024</v>
+        <v>6.641698693800324</v>
       </c>
       <c r="D22">
-        <v>8.302562152191005</v>
+        <v>7.907980768354461</v>
       </c>
       <c r="E22">
-        <v>5.76894986245973</v>
+        <v>5.369029705146279</v>
       </c>
       <c r="F22">
-        <v>84.79937665142275</v>
+        <v>86.07750679612892</v>
       </c>
       <c r="G22">
-        <v>2.107719020820224</v>
+        <v>2.161391328686288</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.372740702179009</v>
+        <v>8.043262127003803</v>
       </c>
       <c r="K22">
-        <v>19.29116674312216</v>
+        <v>12.90934679666416</v>
       </c>
       <c r="L22">
-        <v>5.422021702058559</v>
+        <v>5.095130470625207</v>
       </c>
       <c r="M22">
-        <v>13.23724227514252</v>
+        <v>10.58864407005239</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.32022585557969</v>
+        <v>16.51647140902862</v>
       </c>
       <c r="C23">
-        <v>12.46624807402166</v>
+        <v>6.507339521787547</v>
       </c>
       <c r="D23">
-        <v>8.16085614317547</v>
+        <v>7.790026373136856</v>
       </c>
       <c r="E23">
-        <v>5.761834024833331</v>
+        <v>5.387475048135522</v>
       </c>
       <c r="F23">
-        <v>83.47752653011844</v>
+        <v>84.85823748663249</v>
       </c>
       <c r="G23">
-        <v>2.113926049516686</v>
+        <v>2.166266491692696</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.351513169730461</v>
+        <v>8.013615038229025</v>
       </c>
       <c r="K23">
-        <v>18.86691598094448</v>
+        <v>12.73109361904734</v>
       </c>
       <c r="L23">
-        <v>5.434692224552863</v>
+        <v>5.116677880029307</v>
       </c>
       <c r="M23">
-        <v>13.10473297926479</v>
+        <v>10.53952070094509</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.71252165375887</v>
+        <v>15.59359790032569</v>
       </c>
       <c r="C24">
-        <v>11.35845381998701</v>
+        <v>5.989420344708458</v>
       </c>
       <c r="D24">
-        <v>7.617583509208965</v>
+        <v>7.335453585926811</v>
       </c>
       <c r="E24">
-        <v>5.737325383951815</v>
+        <v>5.459333640504956</v>
       </c>
       <c r="F24">
-        <v>78.44165556193741</v>
+        <v>80.18215670376077</v>
       </c>
       <c r="G24">
-        <v>2.137300494411484</v>
+        <v>2.184763234171473</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.274062334283082</v>
+        <v>7.903577430763711</v>
       </c>
       <c r="K24">
-        <v>17.23216348111782</v>
+        <v>12.07055664221673</v>
       </c>
       <c r="L24">
-        <v>5.491036538369851</v>
+        <v>5.204655181215494</v>
       </c>
       <c r="M24">
-        <v>12.62805593320708</v>
+        <v>10.3741111803778</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.98451211890129</v>
+        <v>14.62280571002477</v>
       </c>
       <c r="C25">
-        <v>10.1134126435291</v>
+        <v>5.407995973887138</v>
       </c>
       <c r="D25">
-        <v>7.014962096552142</v>
+        <v>6.827228950868097</v>
       </c>
       <c r="E25">
-        <v>5.715096504079522</v>
+        <v>5.541330371823932</v>
       </c>
       <c r="F25">
-        <v>72.92952936942049</v>
+        <v>75.01078508519892</v>
       </c>
       <c r="G25">
-        <v>2.162517070374872</v>
+        <v>2.204942368086912</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.195568483744136</v>
+        <v>7.788949896156756</v>
       </c>
       <c r="K25">
-        <v>15.83636814051343</v>
+        <v>11.38884532094227</v>
       </c>
       <c r="L25">
-        <v>5.568011522011912</v>
+        <v>5.312230938933226</v>
       </c>
       <c r="M25">
-        <v>12.16355643980259</v>
+        <v>10.23653369281168</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_23/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.93091773841535</v>
+        <v>12.40103381223794</v>
       </c>
       <c r="C2">
-        <v>4.957365063298648</v>
+        <v>6.334279405510472</v>
       </c>
       <c r="D2">
-        <v>6.436892235699193</v>
+        <v>3.492397214658438</v>
       </c>
       <c r="E2">
-        <v>5.605770439749502</v>
+        <v>6.479182967850649</v>
       </c>
       <c r="F2">
-        <v>71.09562575308756</v>
+        <v>30.69495289244955</v>
       </c>
       <c r="G2">
-        <v>2.220134870282272</v>
+        <v>40.19479297767602</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>4.314591036935596</v>
       </c>
       <c r="J2">
-        <v>7.707399025964809</v>
+        <v>13.43849381449707</v>
       </c>
       <c r="K2">
-        <v>10.91384921965045</v>
+        <v>22.08179415846773</v>
       </c>
       <c r="L2">
-        <v>5.401589890143577</v>
+        <v>5.828973283087362</v>
       </c>
       <c r="M2">
-        <v>10.16727413527376</v>
+        <v>10.4883547817139</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.205463612952654</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>9.528038798346504</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.47785086563118</v>
+        <v>11.64563754152113</v>
       </c>
       <c r="C3">
-        <v>4.636712411879812</v>
+        <v>6.031429637578775</v>
       </c>
       <c r="D3">
-        <v>6.162195377740804</v>
+        <v>3.355752090666482</v>
       </c>
       <c r="E3">
-        <v>5.652074654315485</v>
+        <v>6.352699630809602</v>
       </c>
       <c r="F3">
-        <v>68.37965923683984</v>
+        <v>30.31475353683863</v>
       </c>
       <c r="G3">
-        <v>2.230699620123811</v>
+        <v>39.61458189443561</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>4.565944670102458</v>
       </c>
       <c r="J3">
-        <v>7.653631821990932</v>
+        <v>13.40866171697807</v>
       </c>
       <c r="K3">
-        <v>10.609368308335</v>
+        <v>22.02399952194073</v>
       </c>
       <c r="L3">
-        <v>5.468179934353525</v>
+        <v>5.7816671603078</v>
       </c>
       <c r="M3">
-        <v>10.1388414249272</v>
+        <v>9.842889243656785</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.050976521499055</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.197155150444809</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.20813895936785</v>
+        <v>11.15869096665814</v>
       </c>
       <c r="C4">
-        <v>4.43198165502773</v>
+        <v>5.837450405748897</v>
       </c>
       <c r="D4">
-        <v>5.98856698411845</v>
+        <v>3.269264861731135</v>
       </c>
       <c r="E4">
-        <v>5.681833877086254</v>
+        <v>6.273147520668691</v>
       </c>
       <c r="F4">
-        <v>66.68360940178782</v>
+        <v>30.09163062018723</v>
       </c>
       <c r="G4">
-        <v>2.237336473135727</v>
+        <v>39.27416687779314</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>4.725482404374477</v>
       </c>
       <c r="J4">
-        <v>7.621278153458978</v>
+        <v>13.39507614429817</v>
       </c>
       <c r="K4">
-        <v>10.43127980168726</v>
+        <v>21.99655128501116</v>
       </c>
       <c r="L4">
-        <v>5.511958316783697</v>
+        <v>5.751638622701961</v>
       </c>
       <c r="M4">
-        <v>10.1300317824888</v>
+        <v>9.42450058546898</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.954020094922469</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>8.98931368652566</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.10047083573112</v>
+        <v>10.95454448062463</v>
       </c>
       <c r="C5">
-        <v>4.346538796487303</v>
+        <v>5.75641846061688</v>
       </c>
       <c r="D5">
-        <v>5.916580792456613</v>
+        <v>3.233405419948474</v>
       </c>
       <c r="E5">
-        <v>5.694299149527923</v>
+        <v>6.240257100592462</v>
       </c>
       <c r="F5">
-        <v>65.98578235030861</v>
+        <v>30.00331271843716</v>
       </c>
       <c r="G5">
-        <v>2.240081157406959</v>
+        <v>39.13944523108014</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>4.791827880446984</v>
       </c>
       <c r="J5">
-        <v>7.608248812198455</v>
+        <v>13.39070261300803</v>
       </c>
       <c r="K5">
-        <v>10.36097920756346</v>
+        <v>21.98733754258159</v>
       </c>
       <c r="L5">
-        <v>5.530514665069958</v>
+        <v>5.739150319935806</v>
       </c>
       <c r="M5">
-        <v>10.12854623994159</v>
+        <v>9.248466330212194</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.91401086742741</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>8.903544957197235</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.08273134143537</v>
+        <v>10.92030476379187</v>
       </c>
       <c r="C6">
-        <v>4.332228446171243</v>
+        <v>5.742844541138549</v>
       </c>
       <c r="D6">
-        <v>5.904553827979258</v>
+        <v>3.227414954805807</v>
       </c>
       <c r="E6">
-        <v>5.696389540199737</v>
+        <v>6.234767256139066</v>
       </c>
       <c r="F6">
-        <v>65.86952135759589</v>
+        <v>29.9888052455862</v>
       </c>
       <c r="G6">
-        <v>2.240539399229753</v>
+        <v>39.11731674475112</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>4.80292565228506</v>
       </c>
       <c r="J6">
-        <v>7.606094361507799</v>
+        <v>13.39004582012165</v>
       </c>
       <c r="K6">
-        <v>10.34944427556251</v>
+        <v>21.98592523066607</v>
       </c>
       <c r="L6">
-        <v>5.533638902845085</v>
+        <v>5.737061335676006</v>
       </c>
       <c r="M6">
-        <v>10.12842462705227</v>
+        <v>9.218902085333021</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.90733815091532</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>8.889241658812645</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.20667768291175</v>
+        <v>11.15596074333692</v>
       </c>
       <c r="C7">
-        <v>4.430837542379648</v>
+        <v>5.83636556058062</v>
       </c>
       <c r="D7">
-        <v>5.98760111012317</v>
+        <v>3.268783689577828</v>
       </c>
       <c r="E7">
-        <v>5.682000613577714</v>
+        <v>6.272705856419955</v>
       </c>
       <c r="F7">
-        <v>66.67422458444049</v>
+        <v>30.09042896957751</v>
       </c>
       <c r="G7">
-        <v>2.237373323467566</v>
+        <v>39.27233376099971</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>4.726371736610276</v>
       </c>
       <c r="J7">
-        <v>7.621101821221525</v>
+        <v>13.39501248949627</v>
       </c>
       <c r="K7">
-        <v>10.43032244907635</v>
+        <v>21.99641910800158</v>
       </c>
       <c r="L7">
-        <v>5.512205687281273</v>
+        <v>5.751471224814138</v>
       </c>
       <c r="M7">
-        <v>10.13000331944961</v>
+        <v>9.422148923528571</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.953482495090523</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>8.988161172728605</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.77300638732343</v>
+        <v>12.14542793477306</v>
       </c>
       <c r="C8">
-        <v>4.848406803546291</v>
+        <v>6.231541380285347</v>
       </c>
       <c r="D8">
-        <v>6.343214473086039</v>
+        <v>3.445838461513</v>
       </c>
       <c r="E8">
-        <v>5.621463006203786</v>
+        <v>6.435965549852157</v>
       </c>
       <c r="F8">
-        <v>70.16531992813691</v>
+        <v>30.56172621534534</v>
       </c>
       <c r="G8">
-        <v>2.223747941666574</v>
+        <v>39.99146261674003</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>4.400191834591618</v>
       </c>
       <c r="J8">
-        <v>7.688716422360746</v>
+        <v>13.42720946404142</v>
       </c>
       <c r="K8">
-        <v>10.80705048147524</v>
+        <v>22.06016862012508</v>
       </c>
       <c r="L8">
-        <v>5.423942970438934</v>
+        <v>5.812863315666882</v>
       </c>
       <c r="M8">
-        <v>10.15563320458481</v>
+        <v>10.27038322626785</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.152649510584104</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.414980457709946</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.94642246394177</v>
+        <v>13.91951490497341</v>
       </c>
       <c r="C9">
-        <v>5.607170731417499</v>
+        <v>6.941673861351356</v>
       </c>
       <c r="D9">
-        <v>7.000898828318647</v>
+        <v>3.771215347927795</v>
       </c>
       <c r="E9">
-        <v>5.513091332187566</v>
+        <v>6.741036384637349</v>
       </c>
       <c r="F9">
-        <v>76.76982161207752</v>
+        <v>31.56715198108647</v>
       </c>
       <c r="G9">
-        <v>2.198101615354719</v>
+        <v>41.52620239418007</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>3.800740694475226</v>
       </c>
       <c r="J9">
-        <v>7.827079923465825</v>
+        <v>13.52909751182581</v>
       </c>
       <c r="K9">
-        <v>11.61435591790975</v>
+        <v>22.25116212804725</v>
       </c>
       <c r="L9">
-        <v>5.274371822031617</v>
+        <v>5.925668021155504</v>
       </c>
       <c r="M9">
-        <v>10.2776992085334</v>
+        <v>11.75860062187246</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.525368460826542</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.21079806421463</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.84217736209349</v>
+        <v>15.1710697241424</v>
       </c>
       <c r="C10">
-        <v>6.131631037285404</v>
+        <v>7.447706419795859</v>
       </c>
       <c r="D10">
-        <v>7.460192884629692</v>
+        <v>3.983138151224112</v>
       </c>
       <c r="E10">
-        <v>5.439486831062986</v>
+        <v>6.899912377134893</v>
       </c>
       <c r="F10">
-        <v>81.46129230490425</v>
+        <v>32.13692449561727</v>
       </c>
       <c r="G10">
-        <v>2.179732090005632</v>
+        <v>42.39238610309633</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>3.409075884388709</v>
       </c>
       <c r="J10">
-        <v>7.933090549439359</v>
+        <v>13.56323120145466</v>
       </c>
       <c r="K10">
-        <v>12.24741241837244</v>
+        <v>22.29925004779397</v>
       </c>
       <c r="L10">
-        <v>5.179737787089751</v>
+        <v>5.986587634109721</v>
       </c>
       <c r="M10">
-        <v>10.4156421619484</v>
+        <v>12.75362054555213</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.728558933045231</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>10.72343165767304</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.25644606151869</v>
+        <v>15.69233906246289</v>
       </c>
       <c r="C11">
-        <v>6.364028492780044</v>
+        <v>7.88685922704522</v>
       </c>
       <c r="D11">
-        <v>7.664193882958817</v>
+        <v>3.968501403556834</v>
       </c>
       <c r="E11">
-        <v>5.407240609520068</v>
+        <v>6.548272322868236</v>
       </c>
       <c r="F11">
-        <v>83.55998537220192</v>
+        <v>30.53475527658688</v>
       </c>
       <c r="G11">
-        <v>2.171432152267067</v>
+        <v>39.91305281770149</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>3.991072472553745</v>
       </c>
       <c r="J11">
-        <v>7.982476308424381</v>
+        <v>13.01729789577836</v>
       </c>
       <c r="K11">
-        <v>12.54392829926667</v>
+        <v>21.17327635173777</v>
       </c>
       <c r="L11">
-        <v>5.140249635736645</v>
+        <v>5.905833823384113</v>
       </c>
       <c r="M11">
-        <v>10.48989030786714</v>
+        <v>13.25320377774238</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.330691424295799</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>10.58293185772091</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.41428605819597</v>
+        <v>15.87910615367208</v>
       </c>
       <c r="C12">
-        <v>6.451236963032674</v>
+        <v>8.162311042818873</v>
       </c>
       <c r="D12">
-        <v>7.740766647635111</v>
+        <v>3.909904679901616</v>
       </c>
       <c r="E12">
-        <v>5.395201670083337</v>
+        <v>6.309372602973587</v>
       </c>
       <c r="F12">
-        <v>84.34969506155858</v>
+        <v>29.0542704529657</v>
       </c>
       <c r="G12">
-        <v>2.168292966331105</v>
+        <v>37.62030794148742</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>5.055157369553911</v>
       </c>
       <c r="J12">
-        <v>8.001364556809831</v>
+        <v>12.55087540119093</v>
       </c>
       <c r="K12">
-        <v>12.65744873812985</v>
+        <v>20.22660157308903</v>
       </c>
       <c r="L12">
-        <v>5.125833820502526</v>
+        <v>5.886633155072166</v>
       </c>
       <c r="M12">
-        <v>10.51974812817977</v>
+        <v>13.47548910570184</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.973635368584882</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>10.35088334868371</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.38024926237764</v>
+        <v>15.82632039135419</v>
       </c>
       <c r="C13">
-        <v>6.432488805313047</v>
+        <v>8.33427011323066</v>
       </c>
       <c r="D13">
-        <v>7.724304876061533</v>
+        <v>3.812653354208157</v>
       </c>
       <c r="E13">
-        <v>5.397786918851668</v>
+        <v>6.149233161301758</v>
       </c>
       <c r="F13">
-        <v>84.17983761870981</v>
+        <v>27.56872406156094</v>
       </c>
       <c r="G13">
-        <v>2.168968950307659</v>
+        <v>35.31301690669822</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>6.301221348471425</v>
       </c>
       <c r="J13">
-        <v>7.997287974498518</v>
+        <v>12.11782183879105</v>
       </c>
       <c r="K13">
-        <v>12.63294471021687</v>
+        <v>19.36435508216112</v>
       </c>
       <c r="L13">
-        <v>5.128914173369692</v>
+        <v>5.911491377098507</v>
       </c>
       <c r="M13">
-        <v>10.51323878139763</v>
+        <v>13.50463348592374</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.627626474535656</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>10.03016016809081</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.26941224558344</v>
+        <v>15.68060204446761</v>
       </c>
       <c r="C14">
-        <v>6.371218545072406</v>
+        <v>8.410389363290037</v>
       </c>
       <c r="D14">
-        <v>7.670506941642738</v>
+        <v>3.726070347349732</v>
       </c>
       <c r="E14">
-        <v>5.406246746515372</v>
+        <v>6.08969026797455</v>
       </c>
       <c r="F14">
-        <v>83.62505497106356</v>
+        <v>26.53293749224271</v>
       </c>
       <c r="G14">
-        <v>2.171173839455451</v>
+        <v>33.69927826614482</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>7.231068842177852</v>
       </c>
       <c r="J14">
-        <v>7.984026385842713</v>
+        <v>11.83372620200041</v>
       </c>
       <c r="K14">
-        <v>12.553242784987</v>
+        <v>18.81040684619501</v>
       </c>
       <c r="L14">
-        <v>5.139052706623541</v>
+        <v>5.955371974724633</v>
       </c>
       <c r="M14">
-        <v>10.49231129630286</v>
+        <v>13.43844862504642</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.397168308130403</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>9.762844316094041</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.20164735641393</v>
+        <v>15.5931528532425</v>
       </c>
       <c r="C15">
-        <v>6.333588153622813</v>
+        <v>8.40607525404692</v>
       </c>
       <c r="D15">
-        <v>7.637466967612827</v>
+        <v>3.696853086416812</v>
       </c>
       <c r="E15">
-        <v>5.411450854500718</v>
+        <v>6.079053465583018</v>
       </c>
       <c r="F15">
-        <v>83.28458533200836</v>
+        <v>26.28211861660412</v>
       </c>
       <c r="G15">
-        <v>2.172524758871767</v>
+        <v>33.30756546639684</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>7.455269467147311</v>
       </c>
       <c r="J15">
-        <v>7.975928261248057</v>
+        <v>11.7720924371496</v>
       </c>
       <c r="K15">
-        <v>12.50458470651028</v>
+        <v>18.6931987041578</v>
       </c>
       <c r="L15">
-        <v>5.145333667250963</v>
+        <v>5.966779561558278</v>
       </c>
       <c r="M15">
-        <v>10.47972214397633</v>
+        <v>13.38040382229223</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.340781381832755</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>9.67925462202316</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.81523884951345</v>
+        <v>15.09110366670155</v>
       </c>
       <c r="C16">
-        <v>6.116326628621542</v>
+        <v>8.173083599666057</v>
       </c>
       <c r="D16">
-        <v>7.446764120437162</v>
+        <v>3.623790133920632</v>
       </c>
       <c r="E16">
-        <v>5.441618595073673</v>
+        <v>6.036556635327372</v>
       </c>
       <c r="F16">
-        <v>81.323428142227</v>
+        <v>26.31725808940604</v>
       </c>
       <c r="G16">
-        <v>2.180275290585372</v>
+        <v>33.35890476864005</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>7.322771868303649</v>
       </c>
       <c r="J16">
-        <v>7.929888087000492</v>
+        <v>11.84474725572286</v>
       </c>
       <c r="K16">
-        <v>12.22820642693882</v>
+        <v>18.84922760818394</v>
       </c>
       <c r="L16">
-        <v>5.18239217674575</v>
+        <v>5.930326177595693</v>
       </c>
       <c r="M16">
-        <v>10.41102865269612</v>
+        <v>12.97096395157859</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.317903477955604</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>9.516862436130671</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.57991022747405</v>
+        <v>14.77835172313184</v>
       </c>
       <c r="C17">
-        <v>5.98152298289128</v>
+        <v>7.948070887759551</v>
       </c>
       <c r="D17">
-        <v>7.328529652196555</v>
+        <v>3.614730908646075</v>
       </c>
       <c r="E17">
-        <v>5.460438275963185</v>
+        <v>6.025969653451446</v>
       </c>
       <c r="F17">
-        <v>80.11125549725341</v>
+        <v>26.89671212166669</v>
       </c>
       <c r="G17">
-        <v>2.185041548583933</v>
+        <v>34.26127517822989</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>6.708787054009843</v>
       </c>
       <c r="J17">
-        <v>7.901954728668387</v>
+        <v>12.05025324308806</v>
       </c>
       <c r="K17">
-        <v>12.06084300443494</v>
+        <v>19.25807405205197</v>
       </c>
       <c r="L17">
-        <v>5.206055396118864</v>
+        <v>5.87460708985776</v>
       </c>
       <c r="M17">
-        <v>10.37189332201642</v>
+        <v>12.68655757857663</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.419959927388831</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>9.537588415574962</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.44519283826006</v>
+        <v>14.60073582570732</v>
       </c>
       <c r="C18">
-        <v>5.9033992761918</v>
+        <v>7.709636290639573</v>
       </c>
       <c r="D18">
-        <v>7.260057397177808</v>
+        <v>3.659435840759177</v>
       </c>
       <c r="E18">
-        <v>5.471379649025929</v>
+        <v>6.097458740622527</v>
       </c>
       <c r="F18">
-        <v>79.41069410791704</v>
+        <v>28.01951811042046</v>
       </c>
       <c r="G18">
-        <v>2.187788573017693</v>
+        <v>36.01051963788114</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>5.674027311546577</v>
       </c>
       <c r="J18">
-        <v>7.885996142515273</v>
+        <v>12.39835733349905</v>
       </c>
       <c r="K18">
-        <v>11.96538162875193</v>
+        <v>19.9493288901837</v>
       </c>
       <c r="L18">
-        <v>5.219999333113749</v>
+        <v>5.825744061490062</v>
       </c>
       <c r="M18">
-        <v>10.35046031843356</v>
+        <v>12.48409272623956</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.660680478864752</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>9.717205325428839</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.3996901577559</v>
+        <v>14.54865816826736</v>
       </c>
       <c r="C19">
-        <v>5.876844256957522</v>
+        <v>7.485577003698685</v>
       </c>
       <c r="D19">
-        <v>7.236792875716952</v>
+        <v>3.742558458472447</v>
       </c>
       <c r="E19">
-        <v>5.475104440378555</v>
+        <v>6.307917686481261</v>
       </c>
       <c r="F19">
-        <v>79.17291981851291</v>
+        <v>29.5155585763874</v>
       </c>
       <c r="G19">
-        <v>2.188719752694748</v>
+        <v>38.33734942865588</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>4.545283595187114</v>
       </c>
       <c r="J19">
-        <v>7.880610810345448</v>
+        <v>12.84553064028269</v>
       </c>
       <c r="K19">
-        <v>11.93319780899324</v>
+        <v>20.84755960523531</v>
       </c>
       <c r="L19">
-        <v>5.224777073901824</v>
+        <v>5.830089024854409</v>
       </c>
       <c r="M19">
-        <v>10.34338577475411</v>
+        <v>12.36735546519266</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.019801046587524</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>10.00734780629021</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.60489556918688</v>
+        <v>14.85190692497314</v>
       </c>
       <c r="C20">
-        <v>5.995933301359194</v>
+        <v>7.318865517547265</v>
       </c>
       <c r="D20">
-        <v>7.341164040410645</v>
+        <v>3.927921877844589</v>
       </c>
       <c r="E20">
-        <v>5.458422842508288</v>
+        <v>6.856080077269144</v>
       </c>
       <c r="F20">
-        <v>80.24064001880429</v>
+        <v>31.97407648635819</v>
       </c>
       <c r="G20">
-        <v>2.184533622334745</v>
+        <v>42.14429357818742</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>3.510645578623221</v>
       </c>
       <c r="J20">
-        <v>7.904916973960933</v>
+        <v>13.54959270790871</v>
       </c>
       <c r="K20">
-        <v>12.0785761650309</v>
+        <v>22.27760318814259</v>
       </c>
       <c r="L20">
-        <v>5.203501720484073</v>
+        <v>5.969965221415976</v>
       </c>
       <c r="M20">
-        <v>10.37594729794292</v>
+        <v>12.49992215026057</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.673275927510016</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>10.58895761677529</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.30194148046435</v>
+        <v>15.77097054080357</v>
       </c>
       <c r="C21">
-        <v>6.389235882664492</v>
+        <v>7.655721137832123</v>
       </c>
       <c r="D21">
-        <v>7.686326797921381</v>
+        <v>4.104836136323123</v>
       </c>
       <c r="E21">
-        <v>5.40375727063327</v>
+        <v>7.062184138904451</v>
       </c>
       <c r="F21">
-        <v>83.78814306947984</v>
+        <v>32.76317945189714</v>
       </c>
       <c r="G21">
-        <v>2.170526143218212</v>
+        <v>43.35215497491644</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>3.177706779315401</v>
       </c>
       <c r="J21">
-        <v>7.987916390410977</v>
+        <v>13.68645167939458</v>
       </c>
       <c r="K21">
-        <v>12.57661943596066</v>
+        <v>22.53881659231035</v>
       </c>
       <c r="L21">
-        <v>5.136059964751051</v>
+        <v>6.042889733627727</v>
       </c>
       <c r="M21">
-        <v>10.49841020458031</v>
+        <v>13.21773594959991</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.915580655155838</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.03738994273832</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.76314820714112</v>
+        <v>16.34522011377334</v>
       </c>
       <c r="C22">
-        <v>6.641698693800324</v>
+        <v>7.881233196816807</v>
       </c>
       <c r="D22">
-        <v>7.907980768354461</v>
+        <v>4.211133437205052</v>
       </c>
       <c r="E22">
-        <v>5.369029705146279</v>
+        <v>7.166451066819533</v>
       </c>
       <c r="F22">
-        <v>86.07750679612892</v>
+        <v>33.17600675123744</v>
       </c>
       <c r="G22">
-        <v>2.161391328686288</v>
+        <v>43.98239740021372</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>2.976344931087359</v>
       </c>
       <c r="J22">
-        <v>8.043262127003803</v>
+        <v>13.74727422042966</v>
       </c>
       <c r="K22">
-        <v>12.90934679666416</v>
+        <v>22.64907651195491</v>
       </c>
       <c r="L22">
-        <v>5.095130470625207</v>
+        <v>6.080773422703341</v>
       </c>
       <c r="M22">
-        <v>10.58864407005239</v>
+        <v>13.67198577850339</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.04141734444675</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>11.30231957535009</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.51647140902862</v>
+        <v>16.04103274847276</v>
       </c>
       <c r="C23">
-        <v>6.507339521787547</v>
+        <v>7.761549255866505</v>
       </c>
       <c r="D23">
-        <v>7.790026373136856</v>
+        <v>4.154673490602216</v>
       </c>
       <c r="E23">
-        <v>5.387475048135522</v>
+        <v>7.110949378137728</v>
       </c>
       <c r="F23">
-        <v>84.85823748663249</v>
+        <v>32.95490951960677</v>
       </c>
       <c r="G23">
-        <v>2.166266491692696</v>
+        <v>43.64486128242002</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>3.083494238273896</v>
       </c>
       <c r="J23">
-        <v>8.013615038229025</v>
+        <v>13.71433766513901</v>
       </c>
       <c r="K23">
-        <v>12.73109361904734</v>
+        <v>22.58941268925718</v>
       </c>
       <c r="L23">
-        <v>5.116677880029307</v>
+        <v>6.060614644148258</v>
       </c>
       <c r="M23">
-        <v>10.53952070094509</v>
+        <v>13.43127313296526</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.974494431130526</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.16152499883479</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.59359790032569</v>
+        <v>14.83816102281732</v>
       </c>
       <c r="C24">
-        <v>5.989420344708458</v>
+        <v>7.293389702586274</v>
       </c>
       <c r="D24">
-        <v>7.335453585926811</v>
+        <v>3.934908766140692</v>
       </c>
       <c r="E24">
-        <v>5.459333640504956</v>
+        <v>6.897479580956762</v>
       </c>
       <c r="F24">
-        <v>80.18215670376077</v>
+        <v>32.13445726440823</v>
       </c>
       <c r="G24">
-        <v>2.184763234171473</v>
+        <v>42.39229504286813</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>3.496556105323038</v>
       </c>
       <c r="J24">
-        <v>7.903577430763711</v>
+        <v>13.59985134302603</v>
       </c>
       <c r="K24">
-        <v>12.07055664221673</v>
+        <v>22.38107448722273</v>
       </c>
       <c r="L24">
-        <v>5.204655181215494</v>
+        <v>5.982901074315004</v>
       </c>
       <c r="M24">
-        <v>10.3741111803778</v>
+        <v>12.48148299383505</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.715887492513343</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>10.61531215103568</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.62280571002477</v>
+        <v>13.44496023180627</v>
       </c>
       <c r="C25">
-        <v>5.407995973887138</v>
+        <v>6.756624905761653</v>
       </c>
       <c r="D25">
-        <v>6.827228950868097</v>
+        <v>3.685692336043449</v>
       </c>
       <c r="E25">
-        <v>5.541330371823932</v>
+        <v>6.660126201537382</v>
       </c>
       <c r="F25">
-        <v>75.01078508519892</v>
+        <v>31.28656381974752</v>
       </c>
       <c r="G25">
-        <v>2.204942368086912</v>
+        <v>41.09785218338748</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>3.95876996878193</v>
       </c>
       <c r="J25">
-        <v>7.788949896156756</v>
+        <v>13.49721425758576</v>
       </c>
       <c r="K25">
-        <v>11.38884532094227</v>
+        <v>22.19211767641907</v>
       </c>
       <c r="L25">
-        <v>5.312230938933226</v>
+        <v>5.895932474732378</v>
       </c>
       <c r="M25">
-        <v>10.23653369281168</v>
+        <v>11.37472384009159</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.426602758779339</v>
       </c>
       <c r="O25">
+        <v>10.00044020556578</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_23/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.40103381223794</v>
+        <v>12.27500115007526</v>
       </c>
       <c r="C2">
-        <v>6.334279405510472</v>
+        <v>6.49639585857482</v>
       </c>
       <c r="D2">
-        <v>3.492397214658438</v>
+        <v>3.838636275750868</v>
       </c>
       <c r="E2">
-        <v>6.479182967850649</v>
+        <v>6.494404680986355</v>
       </c>
       <c r="F2">
-        <v>30.69495289244955</v>
+        <v>28.62358920506376</v>
       </c>
       <c r="G2">
-        <v>40.19479297767602</v>
+        <v>36.79120839991133</v>
       </c>
       <c r="H2">
-        <v>4.314591036935596</v>
+        <v>4.001249983433007</v>
       </c>
       <c r="J2">
-        <v>13.43849381449707</v>
+        <v>12.57438762335505</v>
       </c>
       <c r="K2">
-        <v>22.08179415846773</v>
+        <v>20.22882171208424</v>
       </c>
       <c r="L2">
-        <v>5.828973283087362</v>
+        <v>15.42115653512409</v>
       </c>
       <c r="M2">
-        <v>10.4883547817139</v>
+        <v>14.52949448626853</v>
       </c>
       <c r="N2">
-        <v>6.205463612952654</v>
+        <v>5.738926446529424</v>
       </c>
       <c r="O2">
-        <v>9.528038798346504</v>
+        <v>10.71448009881217</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.599126445481921</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.537867071223733</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.64563754152113</v>
+        <v>11.47419667151784</v>
       </c>
       <c r="C3">
-        <v>6.031429637578775</v>
+        <v>6.081829242973334</v>
       </c>
       <c r="D3">
-        <v>3.355752090666482</v>
+        <v>3.686726194445762</v>
       </c>
       <c r="E3">
-        <v>6.352699630809602</v>
+        <v>6.385185748358653</v>
       </c>
       <c r="F3">
-        <v>30.31475353683863</v>
+        <v>28.37630466817442</v>
       </c>
       <c r="G3">
-        <v>39.61458189443561</v>
+        <v>36.52613785179303</v>
       </c>
       <c r="H3">
-        <v>4.565944670102458</v>
+        <v>4.226809482120709</v>
       </c>
       <c r="J3">
-        <v>13.40866171697807</v>
+        <v>12.53383546189889</v>
       </c>
       <c r="K3">
-        <v>22.02399952194073</v>
+        <v>20.26179872610337</v>
       </c>
       <c r="L3">
-        <v>5.7816671603078</v>
+        <v>15.50361997821468</v>
       </c>
       <c r="M3">
-        <v>9.842889243656785</v>
+        <v>14.530783893376</v>
       </c>
       <c r="N3">
-        <v>6.050976521499055</v>
+        <v>5.698946858341512</v>
       </c>
       <c r="O3">
-        <v>9.197155150444809</v>
+        <v>10.06173370651856</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.445150600374023</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.192564339691371</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.15869096665814</v>
+        <v>10.95287478249795</v>
       </c>
       <c r="C4">
-        <v>5.837450405748897</v>
+        <v>5.814418615314069</v>
       </c>
       <c r="D4">
-        <v>3.269264861731135</v>
+        <v>3.590951266584685</v>
       </c>
       <c r="E4">
-        <v>6.273147520668691</v>
+        <v>6.316546788622547</v>
       </c>
       <c r="F4">
-        <v>30.09163062018723</v>
+        <v>28.23349066342867</v>
       </c>
       <c r="G4">
-        <v>39.27416687779314</v>
+        <v>36.38224566575436</v>
       </c>
       <c r="H4">
-        <v>4.725482404374477</v>
+        <v>4.370079740345427</v>
       </c>
       <c r="J4">
-        <v>13.39507614429817</v>
+        <v>12.51094238882128</v>
       </c>
       <c r="K4">
-        <v>21.99655128501116</v>
+        <v>20.28821808758465</v>
       </c>
       <c r="L4">
-        <v>5.751638622701961</v>
+        <v>15.55519197029393</v>
       </c>
       <c r="M4">
-        <v>9.42450058546898</v>
+        <v>14.55070813416864</v>
       </c>
       <c r="N4">
-        <v>5.954020094922469</v>
+        <v>5.673507679315163</v>
       </c>
       <c r="O4">
-        <v>8.98931368652566</v>
+        <v>9.638762972626395</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.349048128741211</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>8.975060792757784</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.95454448062463</v>
+        <v>10.73295291104372</v>
       </c>
       <c r="C5">
-        <v>5.75641846061688</v>
+        <v>5.702246574049215</v>
       </c>
       <c r="D5">
-        <v>3.233405419948474</v>
+        <v>3.551343997233504</v>
       </c>
       <c r="E5">
-        <v>6.240257100592462</v>
+        <v>6.28818125213928</v>
       </c>
       <c r="F5">
-        <v>30.00331271843716</v>
+        <v>28.17753130579429</v>
       </c>
       <c r="G5">
-        <v>39.13944523108014</v>
+        <v>36.32822003196956</v>
       </c>
       <c r="H5">
-        <v>4.791827880446984</v>
+        <v>4.429683534239852</v>
       </c>
       <c r="J5">
-        <v>13.39070261300803</v>
+        <v>12.5021083152974</v>
       </c>
       <c r="K5">
-        <v>21.98733754258159</v>
+        <v>20.30048820860044</v>
       </c>
       <c r="L5">
-        <v>5.739150319935806</v>
+        <v>15.57644470260188</v>
       </c>
       <c r="M5">
-        <v>9.248466330212194</v>
+        <v>14.56355753676513</v>
       </c>
       <c r="N5">
-        <v>5.91401086742741</v>
+        <v>5.66291284115739</v>
       </c>
       <c r="O5">
-        <v>8.903544957197235</v>
+        <v>9.460850843687545</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.309528395100942</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.88515742582897</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.92030476379187</v>
+        <v>10.69598251460546</v>
       </c>
       <c r="C6">
-        <v>5.742844541138549</v>
+        <v>5.683428499249793</v>
       </c>
       <c r="D6">
-        <v>3.227414954805807</v>
+        <v>3.544733924886168</v>
       </c>
       <c r="E6">
-        <v>6.234767256139066</v>
+        <v>6.283447419806238</v>
       </c>
       <c r="F6">
-        <v>29.9888052455862</v>
+        <v>28.16837356513055</v>
       </c>
       <c r="G6">
-        <v>39.11731674475112</v>
+        <v>36.31952366634735</v>
       </c>
       <c r="H6">
-        <v>4.80292565228506</v>
+        <v>4.439654930015435</v>
       </c>
       <c r="J6">
-        <v>13.39004582012165</v>
+        <v>12.500671046816</v>
       </c>
       <c r="K6">
-        <v>21.98592523066607</v>
+        <v>20.30261511718509</v>
       </c>
       <c r="L6">
-        <v>5.737061335676006</v>
+        <v>15.57998801913002</v>
       </c>
       <c r="M6">
-        <v>9.218902085333021</v>
+        <v>14.56597426197228</v>
       </c>
       <c r="N6">
-        <v>5.90733815091532</v>
+        <v>5.66113968198624</v>
       </c>
       <c r="O6">
-        <v>8.889241658812645</v>
+        <v>9.430974702178325</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.302945667100287</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.870155865464996</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.15596074333692</v>
+        <v>10.95135509523516</v>
       </c>
       <c r="C7">
-        <v>5.83636556058062</v>
+        <v>5.80522596272912</v>
       </c>
       <c r="D7">
-        <v>3.268783689577828</v>
+        <v>3.596455380880585</v>
       </c>
       <c r="E7">
-        <v>6.272705856419955</v>
+        <v>6.317165728485569</v>
       </c>
       <c r="F7">
-        <v>30.09042896957751</v>
+        <v>28.20922927232679</v>
       </c>
       <c r="G7">
-        <v>39.27233376099971</v>
+        <v>36.4298728003585</v>
       </c>
       <c r="H7">
-        <v>4.726371736610276</v>
+        <v>4.371658970967609</v>
       </c>
       <c r="J7">
-        <v>13.39501248949627</v>
+        <v>12.46774623245262</v>
       </c>
       <c r="K7">
-        <v>21.99641910800158</v>
+        <v>20.27454310535714</v>
       </c>
       <c r="L7">
-        <v>5.751471224814138</v>
+        <v>15.54294063391184</v>
       </c>
       <c r="M7">
-        <v>9.422148923528571</v>
+        <v>14.54238168596486</v>
       </c>
       <c r="N7">
-        <v>5.953482495090523</v>
+        <v>5.672819518408106</v>
       </c>
       <c r="O7">
-        <v>8.988161172728605</v>
+        <v>9.63432219002639</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.348230839921226</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>8.974524094177594</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.14542793477306</v>
+        <v>12.00933999559216</v>
       </c>
       <c r="C8">
-        <v>6.231541380285347</v>
+        <v>6.332261546539128</v>
       </c>
       <c r="D8">
-        <v>3.445838461513</v>
+        <v>3.806056066846146</v>
       </c>
       <c r="E8">
-        <v>6.435965549852157</v>
+        <v>6.460420408065707</v>
       </c>
       <c r="F8">
-        <v>30.56172621534534</v>
+        <v>28.46011242087841</v>
       </c>
       <c r="G8">
-        <v>39.99146261674003</v>
+        <v>36.85611477314758</v>
       </c>
       <c r="H8">
-        <v>4.400191834591618</v>
+        <v>4.080449851014919</v>
       </c>
       <c r="J8">
-        <v>13.42720946404142</v>
+        <v>12.41973274657683</v>
       </c>
       <c r="K8">
-        <v>22.06016862012508</v>
+        <v>20.19379742595452</v>
       </c>
       <c r="L8">
-        <v>5.812863315666882</v>
+        <v>15.41069797163417</v>
       </c>
       <c r="M8">
-        <v>10.27038322626785</v>
+        <v>14.49601945415007</v>
       </c>
       <c r="N8">
-        <v>6.152649510584104</v>
+        <v>5.723629812954634</v>
       </c>
       <c r="O8">
-        <v>9.414980457709946</v>
+        <v>10.48769067945372</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.545484192027508</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.422069171307427</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.91951490497341</v>
+        <v>13.84520980148621</v>
       </c>
       <c r="C9">
-        <v>6.941673861351356</v>
+        <v>7.291072347063237</v>
       </c>
       <c r="D9">
-        <v>3.771215347927795</v>
+        <v>4.172905090477723</v>
       </c>
       <c r="E9">
-        <v>6.741036384637349</v>
+        <v>6.725051367475392</v>
       </c>
       <c r="F9">
-        <v>31.56715198108647</v>
+        <v>29.11109591863365</v>
       </c>
       <c r="G9">
-        <v>41.52620239418007</v>
+        <v>37.66852803060615</v>
       </c>
       <c r="H9">
-        <v>3.800740694475226</v>
+        <v>3.543555428449176</v>
       </c>
       <c r="J9">
-        <v>13.52909751182581</v>
+        <v>12.49699749229666</v>
       </c>
       <c r="K9">
-        <v>22.25116212804725</v>
+        <v>20.1370185975433</v>
       </c>
       <c r="L9">
-        <v>5.925668021155504</v>
+        <v>15.20454484713269</v>
       </c>
       <c r="M9">
-        <v>11.75860062187246</v>
+        <v>14.59083783452781</v>
       </c>
       <c r="N9">
-        <v>6.525368460826542</v>
+        <v>5.818369178994423</v>
       </c>
       <c r="O9">
-        <v>10.21079806421463</v>
+        <v>11.99199402577847</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>6.919517689988819</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.24943283009564</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.1710697241424</v>
+        <v>15.06100303563273</v>
       </c>
       <c r="C10">
-        <v>7.447706419795859</v>
+        <v>7.913741088572753</v>
       </c>
       <c r="D10">
-        <v>3.983138151224112</v>
+        <v>4.439908127101576</v>
       </c>
       <c r="E10">
-        <v>6.899912377134893</v>
+        <v>6.864627086730094</v>
       </c>
       <c r="F10">
-        <v>32.13692449561727</v>
+        <v>29.32592773541867</v>
       </c>
       <c r="G10">
-        <v>42.39238610309633</v>
+        <v>38.36201371291639</v>
       </c>
       <c r="H10">
-        <v>3.409075884388709</v>
+        <v>3.198923559378407</v>
       </c>
       <c r="J10">
-        <v>13.56323120145466</v>
+        <v>12.27779812457646</v>
       </c>
       <c r="K10">
-        <v>22.29925004779397</v>
+        <v>19.94813280776627</v>
       </c>
       <c r="L10">
-        <v>5.986587634109721</v>
+        <v>14.91994220702623</v>
       </c>
       <c r="M10">
-        <v>12.75362054555213</v>
+        <v>14.6199013959109</v>
       </c>
       <c r="N10">
-        <v>6.728558933045231</v>
+        <v>5.868899526390007</v>
       </c>
       <c r="O10">
-        <v>10.72343165767304</v>
+        <v>12.98596001672966</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.121292495377005</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.78251919537543</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.69233906246289</v>
+        <v>15.60564505942986</v>
       </c>
       <c r="C11">
-        <v>7.88685922704522</v>
+        <v>8.267363669444576</v>
       </c>
       <c r="D11">
-        <v>3.968501403556834</v>
+        <v>4.460971610221864</v>
       </c>
       <c r="E11">
-        <v>6.548272322868236</v>
+        <v>6.535294534263265</v>
       </c>
       <c r="F11">
-        <v>30.53475527658688</v>
+        <v>27.64664658052739</v>
       </c>
       <c r="G11">
-        <v>39.91305281770149</v>
+        <v>36.74904479227894</v>
       </c>
       <c r="H11">
-        <v>3.991072472553745</v>
+        <v>3.82848282345024</v>
       </c>
       <c r="J11">
-        <v>13.01729789577836</v>
+        <v>11.38595862249613</v>
       </c>
       <c r="K11">
-        <v>21.17327635173777</v>
+        <v>18.85285107414065</v>
       </c>
       <c r="L11">
-        <v>5.905833823384113</v>
+        <v>14.04056902232071</v>
       </c>
       <c r="M11">
-        <v>13.25320377774238</v>
+        <v>13.86167542719626</v>
       </c>
       <c r="N11">
-        <v>6.330691424295799</v>
+        <v>5.822503501849484</v>
       </c>
       <c r="O11">
-        <v>10.58293185772091</v>
+        <v>13.4517276567651</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.693290972646353</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.64357374057941</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.87910615367208</v>
+        <v>15.81620064079315</v>
       </c>
       <c r="C12">
-        <v>8.162311042818873</v>
+        <v>8.462413485104134</v>
       </c>
       <c r="D12">
-        <v>3.909904679901616</v>
+        <v>4.401711439633972</v>
       </c>
       <c r="E12">
-        <v>6.309372602973587</v>
+        <v>6.310006570349727</v>
       </c>
       <c r="F12">
-        <v>29.0542704529657</v>
+        <v>26.2637790776282</v>
       </c>
       <c r="G12">
-        <v>37.62030794148742</v>
+        <v>35.03744153958833</v>
       </c>
       <c r="H12">
-        <v>5.055157369553911</v>
+        <v>4.92859858311413</v>
       </c>
       <c r="J12">
-        <v>12.55087540119093</v>
+        <v>10.86446365837078</v>
       </c>
       <c r="K12">
-        <v>20.22660157308903</v>
+        <v>18.04042037706806</v>
       </c>
       <c r="L12">
-        <v>5.886633155072166</v>
+        <v>13.43028814231655</v>
       </c>
       <c r="M12">
-        <v>13.47548910570184</v>
+        <v>13.25181797863771</v>
       </c>
       <c r="N12">
-        <v>5.973635368584882</v>
+        <v>5.833697030174231</v>
       </c>
       <c r="O12">
-        <v>10.35088334868371</v>
+        <v>13.6505377020894</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.311144300965636</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.4070969603292</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.82632039135419</v>
+        <v>15.78662924352857</v>
       </c>
       <c r="C13">
-        <v>8.33427011323066</v>
+        <v>8.568994635227687</v>
       </c>
       <c r="D13">
-        <v>3.812653354208157</v>
+        <v>4.263590602726954</v>
       </c>
       <c r="E13">
-        <v>6.149233161301758</v>
+        <v>6.160515761811481</v>
       </c>
       <c r="F13">
-        <v>27.56872406156094</v>
+        <v>25.06160229323347</v>
       </c>
       <c r="G13">
-        <v>35.31301690669822</v>
+        <v>33.0173980939782</v>
       </c>
       <c r="H13">
-        <v>6.301221348471425</v>
+        <v>6.193348748647078</v>
       </c>
       <c r="J13">
-        <v>12.11782183879105</v>
+        <v>10.62360750009401</v>
       </c>
       <c r="K13">
-        <v>19.36435508216112</v>
+        <v>17.41768917174588</v>
       </c>
       <c r="L13">
-        <v>5.911491377098507</v>
+        <v>12.98696162586856</v>
       </c>
       <c r="M13">
-        <v>13.50463348592374</v>
+        <v>12.74802508368702</v>
       </c>
       <c r="N13">
-        <v>5.627626474535656</v>
+        <v>5.885425322033315</v>
       </c>
       <c r="O13">
-        <v>10.03016016809081</v>
+        <v>13.66586473519323</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.943442718197537</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.07554365746458</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.68060204446761</v>
+        <v>15.6571894819356</v>
       </c>
       <c r="C14">
-        <v>8.410389363290037</v>
+        <v>8.605169985774188</v>
       </c>
       <c r="D14">
-        <v>3.726070347349732</v>
+        <v>4.131229412214335</v>
       </c>
       <c r="E14">
-        <v>6.08969026797455</v>
+        <v>6.109421179190424</v>
       </c>
       <c r="F14">
-        <v>26.53293749224271</v>
+        <v>24.29882840228787</v>
       </c>
       <c r="G14">
-        <v>33.69927826614482</v>
+        <v>31.48816315194163</v>
       </c>
       <c r="H14">
-        <v>7.231068842177852</v>
+        <v>7.130162318159584</v>
       </c>
       <c r="J14">
-        <v>11.83372620200041</v>
+        <v>10.55819276522553</v>
       </c>
       <c r="K14">
-        <v>18.81040684619501</v>
+        <v>17.06752134318363</v>
       </c>
       <c r="L14">
-        <v>5.955371974724633</v>
+        <v>12.74494828602994</v>
       </c>
       <c r="M14">
-        <v>13.43844862504642</v>
+        <v>12.44947940750061</v>
       </c>
       <c r="N14">
-        <v>5.397168308130403</v>
+        <v>5.944632066657541</v>
       </c>
       <c r="O14">
-        <v>9.762844316094041</v>
+        <v>13.59390973993591</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.699750440627117</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.797534375624171</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.5931528532425</v>
+        <v>15.57378559681121</v>
       </c>
       <c r="C15">
-        <v>8.40607525404692</v>
+        <v>8.594007059707264</v>
       </c>
       <c r="D15">
-        <v>3.696853086416812</v>
+        <v>4.083630718353319</v>
       </c>
       <c r="E15">
-        <v>6.079053465583018</v>
+        <v>6.1021040171668</v>
       </c>
       <c r="F15">
-        <v>26.28211861660412</v>
+        <v>24.14550740753968</v>
       </c>
       <c r="G15">
-        <v>33.30756546639684</v>
+        <v>31.0721169306982</v>
       </c>
       <c r="H15">
-        <v>7.455269467147311</v>
+        <v>7.354182071206791</v>
       </c>
       <c r="J15">
-        <v>11.7720924371496</v>
+        <v>10.58431419924191</v>
       </c>
       <c r="K15">
-        <v>18.6931987041578</v>
+        <v>17.01492261091356</v>
       </c>
       <c r="L15">
-        <v>5.966779561558278</v>
+        <v>12.71072752035998</v>
       </c>
       <c r="M15">
-        <v>13.38040382229223</v>
+        <v>12.39814417799461</v>
       </c>
       <c r="N15">
-        <v>5.340781381832755</v>
+        <v>5.959080436643805</v>
       </c>
       <c r="O15">
-        <v>9.67925462202316</v>
+        <v>13.53628413233453</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.64107823282251</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.709958271029635</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.09110366670155</v>
+        <v>15.07345435607874</v>
       </c>
       <c r="C16">
-        <v>8.173083599666057</v>
+        <v>8.382258548153859</v>
       </c>
       <c r="D16">
-        <v>3.623790133920632</v>
+        <v>3.950962231868477</v>
       </c>
       <c r="E16">
-        <v>6.036556635327372</v>
+        <v>6.070722199654126</v>
       </c>
       <c r="F16">
-        <v>26.31725808940604</v>
+        <v>24.44267436392983</v>
       </c>
       <c r="G16">
-        <v>33.35890476864005</v>
+        <v>30.76953411720453</v>
       </c>
       <c r="H16">
-        <v>7.322771868303649</v>
+        <v>7.20374385388056</v>
       </c>
       <c r="J16">
-        <v>11.84474725572286</v>
+        <v>10.96735511978781</v>
       </c>
       <c r="K16">
-        <v>18.84922760818394</v>
+        <v>17.30337720504986</v>
       </c>
       <c r="L16">
-        <v>5.930326177595693</v>
+        <v>12.93479817336534</v>
       </c>
       <c r="M16">
-        <v>12.97096395157859</v>
+        <v>12.58263204904525</v>
       </c>
       <c r="N16">
-        <v>5.317903477955604</v>
+        <v>5.920307046104855</v>
       </c>
       <c r="O16">
-        <v>9.516862436130671</v>
+        <v>13.14285578037729</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.626862331046341</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.535629487933374</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.77835172313184</v>
+        <v>14.75475956123921</v>
       </c>
       <c r="C17">
-        <v>7.948070887759551</v>
+        <v>8.185200781315716</v>
       </c>
       <c r="D17">
-        <v>3.614730908646075</v>
+        <v>3.927726375535032</v>
       </c>
       <c r="E17">
-        <v>6.025969653451446</v>
+        <v>6.060645792428996</v>
       </c>
       <c r="F17">
-        <v>26.89671212166669</v>
+        <v>25.05628003295622</v>
       </c>
       <c r="G17">
-        <v>34.26127517822989</v>
+        <v>31.40919352434911</v>
       </c>
       <c r="H17">
-        <v>6.708787054009843</v>
+        <v>6.569375993876745</v>
       </c>
       <c r="J17">
-        <v>12.05025324308806</v>
+        <v>11.27967759536638</v>
       </c>
       <c r="K17">
-        <v>19.25807405205197</v>
+        <v>17.70105065059982</v>
       </c>
       <c r="L17">
-        <v>5.87460708985776</v>
+        <v>13.2413483145518</v>
       </c>
       <c r="M17">
-        <v>12.68655757857663</v>
+        <v>12.86638487616243</v>
       </c>
       <c r="N17">
-        <v>5.419959927388831</v>
+        <v>5.856040885535384</v>
       </c>
       <c r="O17">
-        <v>9.537588415574962</v>
+        <v>12.87180338965861</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.74182895243587</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.553881212745871</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.60073582570732</v>
+        <v>14.56158130202383</v>
       </c>
       <c r="C18">
-        <v>7.709636290639573</v>
+        <v>7.9954366916108</v>
       </c>
       <c r="D18">
-        <v>3.659435840759177</v>
+        <v>3.984710871842138</v>
       </c>
       <c r="E18">
-        <v>6.097458740622527</v>
+        <v>6.121638507046921</v>
       </c>
       <c r="F18">
-        <v>28.01951811042046</v>
+        <v>26.06504907160515</v>
       </c>
       <c r="G18">
-        <v>36.01051963788114</v>
+        <v>32.82901607100126</v>
       </c>
       <c r="H18">
-        <v>5.674027311546577</v>
+        <v>5.505895396707521</v>
       </c>
       <c r="J18">
-        <v>12.39835733349905</v>
+        <v>11.63030801107811</v>
       </c>
       <c r="K18">
-        <v>19.9493288901837</v>
+        <v>18.2785141618256</v>
       </c>
       <c r="L18">
-        <v>5.825744061490062</v>
+        <v>13.68954737952479</v>
       </c>
       <c r="M18">
-        <v>12.48409272623956</v>
+        <v>13.29022390231617</v>
       </c>
       <c r="N18">
-        <v>5.660680478864752</v>
+        <v>5.790102791404895</v>
       </c>
       <c r="O18">
-        <v>9.717205325428839</v>
+        <v>12.68498009472155</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.000806000384515</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.738172562654826</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.54865816826736</v>
+        <v>14.48659581075264</v>
       </c>
       <c r="C19">
-        <v>7.485577003698685</v>
+        <v>7.835594277560324</v>
       </c>
       <c r="D19">
-        <v>3.742558458472447</v>
+        <v>4.09611107376356</v>
       </c>
       <c r="E19">
-        <v>6.307917686481261</v>
+        <v>6.312099610382474</v>
       </c>
       <c r="F19">
-        <v>29.5155585763874</v>
+        <v>27.35009122957352</v>
       </c>
       <c r="G19">
-        <v>38.33734942865588</v>
+        <v>34.75375886670048</v>
       </c>
       <c r="H19">
-        <v>4.545283595187114</v>
+        <v>4.340742673273871</v>
       </c>
       <c r="J19">
-        <v>12.84553064028269</v>
+        <v>12.01900181956894</v>
       </c>
       <c r="K19">
-        <v>20.84755960523531</v>
+        <v>18.99169257304809</v>
       </c>
       <c r="L19">
-        <v>5.830089024854409</v>
+        <v>14.24421494522834</v>
       </c>
       <c r="M19">
-        <v>12.36735546519266</v>
+        <v>13.81934132386229</v>
       </c>
       <c r="N19">
-        <v>6.019801046587524</v>
+        <v>5.768096816864926</v>
       </c>
       <c r="O19">
-        <v>10.00734780629021</v>
+        <v>12.58535493836716</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.381646849531012</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.03789577403457</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.85190692497314</v>
+        <v>14.74740263874363</v>
       </c>
       <c r="C20">
-        <v>7.318865517547265</v>
+        <v>7.777084437351832</v>
       </c>
       <c r="D20">
-        <v>3.927921877844589</v>
+        <v>4.351630675663181</v>
       </c>
       <c r="E20">
-        <v>6.856080077269144</v>
+        <v>6.822413185158202</v>
       </c>
       <c r="F20">
-        <v>31.97407648635819</v>
+        <v>29.33522003136146</v>
       </c>
       <c r="G20">
-        <v>42.14429357818742</v>
+        <v>37.9900178162594</v>
       </c>
       <c r="H20">
-        <v>3.510645578623221</v>
+        <v>3.285978149750813</v>
       </c>
       <c r="J20">
-        <v>13.54959270790871</v>
+        <v>12.47519875418843</v>
       </c>
       <c r="K20">
-        <v>22.27760318814259</v>
+        <v>20.03705976563435</v>
       </c>
       <c r="L20">
-        <v>5.969965221415976</v>
+        <v>15.02500025310807</v>
       </c>
       <c r="M20">
-        <v>12.49992215026057</v>
+        <v>14.63834699313648</v>
       </c>
       <c r="N20">
-        <v>6.673275927510016</v>
+        <v>5.856682086072646</v>
       </c>
       <c r="O20">
-        <v>10.58895761677529</v>
+        <v>12.73822127795443</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.066983847396548</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.64106761053669</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.77097054080357</v>
+        <v>15.65425217706059</v>
       </c>
       <c r="C21">
-        <v>7.655721137832123</v>
+        <v>8.09892449772418</v>
       </c>
       <c r="D21">
-        <v>4.104836136323123</v>
+        <v>4.673780166613505</v>
       </c>
       <c r="E21">
-        <v>7.062184138904451</v>
+        <v>7.029417296247792</v>
       </c>
       <c r="F21">
-        <v>32.76317945189714</v>
+        <v>29.39379835788274</v>
       </c>
       <c r="G21">
-        <v>43.35215497491644</v>
+        <v>39.89973612065029</v>
       </c>
       <c r="H21">
-        <v>3.177706779315401</v>
+        <v>3.000641445434066</v>
       </c>
       <c r="J21">
-        <v>13.68645167939458</v>
+        <v>11.6713285058137</v>
       </c>
       <c r="K21">
-        <v>22.53881659231035</v>
+        <v>19.82180460708863</v>
       </c>
       <c r="L21">
-        <v>6.042889733627727</v>
+        <v>14.75354402321413</v>
       </c>
       <c r="M21">
-        <v>13.21773594959991</v>
+        <v>14.62311527523459</v>
       </c>
       <c r="N21">
-        <v>6.915580655155838</v>
+        <v>5.906276162365081</v>
       </c>
       <c r="O21">
-        <v>11.03738994273832</v>
+        <v>13.42901184772785</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.309322168632973</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.1151558471736</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.34522011377334</v>
+        <v>16.2234646435121</v>
       </c>
       <c r="C22">
-        <v>7.881233196816807</v>
+        <v>8.303506828324549</v>
       </c>
       <c r="D22">
-        <v>4.211133437205052</v>
+        <v>4.878197584863588</v>
       </c>
       <c r="E22">
-        <v>7.166451066819533</v>
+        <v>7.138935253229419</v>
       </c>
       <c r="F22">
-        <v>33.17600675123744</v>
+        <v>29.31765394849938</v>
       </c>
       <c r="G22">
-        <v>43.98239740021372</v>
+        <v>41.11195603835593</v>
       </c>
       <c r="H22">
-        <v>2.976344931087359</v>
+        <v>2.829432843051782</v>
       </c>
       <c r="J22">
-        <v>13.74727422042966</v>
+        <v>11.11554688027559</v>
       </c>
       <c r="K22">
-        <v>22.64907651195491</v>
+        <v>19.61487350084928</v>
       </c>
       <c r="L22">
-        <v>6.080773422703341</v>
+        <v>14.52880989390396</v>
       </c>
       <c r="M22">
-        <v>13.67198577850339</v>
+        <v>14.56956697411846</v>
       </c>
       <c r="N22">
-        <v>7.04141734444675</v>
+        <v>5.931433472221484</v>
       </c>
       <c r="O22">
-        <v>11.30231957535009</v>
+        <v>13.86346310081536</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.433802110796366</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.39547734704829</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.04103274847276</v>
+        <v>15.91922883565706</v>
       </c>
       <c r="C23">
-        <v>7.761549255866505</v>
+        <v>8.21004231226375</v>
       </c>
       <c r="D23">
-        <v>4.154673490602216</v>
+        <v>4.755946056347651</v>
       </c>
       <c r="E23">
-        <v>7.110949378137728</v>
+        <v>7.077532947528524</v>
       </c>
       <c r="F23">
-        <v>32.95490951960677</v>
+        <v>29.41411432195788</v>
       </c>
       <c r="G23">
-        <v>43.64486128242002</v>
+        <v>40.33197957886734</v>
       </c>
       <c r="H23">
-        <v>3.083494238273896</v>
+        <v>2.919239768557171</v>
       </c>
       <c r="J23">
-        <v>13.71433766513901</v>
+        <v>11.49959063560297</v>
       </c>
       <c r="K23">
-        <v>22.58941268925718</v>
+        <v>19.75898635565436</v>
       </c>
       <c r="L23">
-        <v>6.060614644148258</v>
+        <v>14.67291282532273</v>
       </c>
       <c r="M23">
-        <v>13.43127313296526</v>
+        <v>14.62402030202478</v>
       </c>
       <c r="N23">
-        <v>6.974494431130526</v>
+        <v>5.919052510509046</v>
       </c>
       <c r="O23">
-        <v>11.16152499883479</v>
+        <v>13.63715840041507</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.36812903146544</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.24532346983875</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.83816102281732</v>
+        <v>14.73140139995451</v>
       </c>
       <c r="C24">
-        <v>7.293389702586274</v>
+        <v>7.757188549726565</v>
       </c>
       <c r="D24">
-        <v>3.934908766140692</v>
+        <v>4.360766447709465</v>
       </c>
       <c r="E24">
-        <v>6.897479580956762</v>
+        <v>6.861458830584227</v>
       </c>
       <c r="F24">
-        <v>32.13445726440823</v>
+        <v>29.47706770770601</v>
       </c>
       <c r="G24">
-        <v>42.39229504286813</v>
+        <v>38.1908900230131</v>
       </c>
       <c r="H24">
-        <v>3.496556105323038</v>
+        <v>3.271915385152023</v>
       </c>
       <c r="J24">
-        <v>13.59985134302603</v>
+        <v>12.52445929931288</v>
       </c>
       <c r="K24">
-        <v>22.38107448722273</v>
+        <v>20.12248806514631</v>
       </c>
       <c r="L24">
-        <v>5.982901074315004</v>
+        <v>15.09266330390323</v>
       </c>
       <c r="M24">
-        <v>12.48148299383505</v>
+        <v>14.70015741665895</v>
       </c>
       <c r="N24">
-        <v>6.715887492513343</v>
+        <v>5.866017640240714</v>
       </c>
       <c r="O24">
-        <v>10.61531215103568</v>
+        <v>12.72157742106012</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.112009399273312</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.66821941876225</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.44496023180627</v>
+        <v>13.37168323692542</v>
       </c>
       <c r="C25">
-        <v>6.756624905761653</v>
+        <v>7.052202713861849</v>
       </c>
       <c r="D25">
-        <v>3.685692336043449</v>
+        <v>4.068456578819597</v>
       </c>
       <c r="E25">
-        <v>6.660126201537382</v>
+        <v>6.653378239850034</v>
       </c>
       <c r="F25">
-        <v>31.28656381974752</v>
+        <v>28.95877057226443</v>
       </c>
       <c r="G25">
-        <v>41.09785218338748</v>
+        <v>37.36336200138832</v>
       </c>
       <c r="H25">
-        <v>3.95876996878193</v>
+        <v>3.68402385198088</v>
       </c>
       <c r="J25">
-        <v>13.49721425758576</v>
+        <v>12.53316348853208</v>
       </c>
       <c r="K25">
-        <v>22.19211767641907</v>
+        <v>20.16551577442331</v>
       </c>
       <c r="L25">
-        <v>5.895932474732378</v>
+        <v>15.27477823016369</v>
       </c>
       <c r="M25">
-        <v>11.37472384009159</v>
+        <v>14.56179078027824</v>
       </c>
       <c r="N25">
-        <v>6.426602758779339</v>
+        <v>5.794120797110311</v>
       </c>
       <c r="O25">
-        <v>10.00044020556578</v>
+        <v>11.60648958162739</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.820360994921979</v>
       </c>
       <c r="Q25">
+        <v>10.03047559542751</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
